--- a/Excel files/literaure Review.xlsx
+++ b/Excel files/literaure Review.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="8" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="6" r:id="rId1"/>
@@ -19,19 +19,20 @@
     <sheet name="Theis content links" sheetId="18" r:id="rId5"/>
     <sheet name="Research Tools" sheetId="16" r:id="rId6"/>
     <sheet name="Reinforcement Learning" sheetId="14" r:id="rId7"/>
-    <sheet name="My reward functions" sheetId="11" r:id="rId8"/>
-    <sheet name="Sofwatres" sheetId="7" r:id="rId9"/>
-    <sheet name="codes" sheetId="4" r:id="rId10"/>
-    <sheet name="Moore" sheetId="17" r:id="rId11"/>
-    <sheet name="SAR daigram" sheetId="3" r:id="rId12"/>
-    <sheet name="Value Based vs Policy Based " sheetId="2" r:id="rId13"/>
-    <sheet name="Model free vs model based " sheetId="5" r:id="rId14"/>
-    <sheet name="Other control strategies " sheetId="12" r:id="rId15"/>
-    <sheet name="MDP" sheetId="13" r:id="rId16"/>
-    <sheet name="Algorithms to know " sheetId="10" r:id="rId17"/>
-    <sheet name="Problems " sheetId="9" r:id="rId18"/>
-    <sheet name="QA" sheetId="8" r:id="rId19"/>
-    <sheet name="Thesis ToC" sheetId="19" r:id="rId20"/>
+    <sheet name="Achivements" sheetId="21" r:id="rId8"/>
+    <sheet name="My reward functions" sheetId="11" r:id="rId9"/>
+    <sheet name="Sofwatres" sheetId="7" r:id="rId10"/>
+    <sheet name="codes" sheetId="4" r:id="rId11"/>
+    <sheet name="Moore" sheetId="17" r:id="rId12"/>
+    <sheet name="SAR daigram" sheetId="3" r:id="rId13"/>
+    <sheet name="Value Based vs Policy Based " sheetId="2" r:id="rId14"/>
+    <sheet name="Model free vs model based " sheetId="5" r:id="rId15"/>
+    <sheet name="Other control strategies " sheetId="12" r:id="rId16"/>
+    <sheet name="MDP" sheetId="13" r:id="rId17"/>
+    <sheet name="Algorithms to know " sheetId="10" r:id="rId18"/>
+    <sheet name="Problems " sheetId="9" r:id="rId19"/>
+    <sheet name="QA" sheetId="8" r:id="rId20"/>
+    <sheet name="Thesis ToC" sheetId="19" r:id="rId21"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Literature Review'!$A$1:$AF$1</definedName>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="563">
   <si>
     <t>Sr.</t>
   </si>
@@ -2046,6 +2047,39 @@
     <t xml:space="preserve">Control temperature of room with
 reinforcement learning
 </t>
+  </si>
+  <si>
+    <t>DEEP REINFORCEMENT LEARNING BASED ENERGY EFFICIENT HEATING CONTROLLER FOR SMART BUILDINGS</t>
+  </si>
+  <si>
+    <t>Thesis with matlab and python</t>
+  </si>
+  <si>
+    <t>Furthermore, it is described how this thesis focuses on model-free RL and how this can be divided into 1) online RL, 2) online off-policy RL, and 3) offline RL [48]. Additionally, model-free RL can be divided into three categories; value-based learning, policy-based learning, and actor-critic-based learning, where actor-critic is a combination of value-based and policy-based learning.</t>
+  </si>
+  <si>
+    <t>Things</t>
+  </si>
+  <si>
+    <t>Introduced to the modern research archetecture i.e. scrum meeting, proper use of outlook, teams etc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Journal club meeting and was lucky enough to present two papers infront of suhc brilliant minds </t>
+  </si>
+  <si>
+    <t>represented Coventry University in two other universities aston and sussex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exposure specially with Attending 3 hackathons </t>
+  </si>
+  <si>
+    <t>Leant a lot of new software.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attended worderfull seminars </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Properly used github, supercomputer access </t>
   </si>
 </sst>
 </file>
@@ -3121,8 +3155,8 @@
       <xdr:rowOff>576943</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>3831772</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>5444</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>988069</xdr:rowOff>
     </xdr:to>
@@ -3349,8 +3383,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>3788228</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>1460327</xdr:rowOff>
     </xdr:to>
@@ -3388,7 +3422,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>3864428</xdr:colOff>
+      <xdr:colOff>3769178</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>971938</xdr:rowOff>
     </xdr:to>
@@ -3463,8 +3497,8 @@
       <xdr:rowOff>391886</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>3792979</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>4751</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>1088572</xdr:rowOff>
     </xdr:to>
@@ -3485,6 +3519,44 @@
         <a:xfrm>
           <a:off x="21063857" y="8011886"/>
           <a:ext cx="3749436" cy="696686"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>474889</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>771526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>3306769</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1285876</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13401675" y="8391526"/>
+          <a:ext cx="2831880" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4155,12 +4227,12 @@
       <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="54.5546875" customWidth="1"/>
+    <col min="2" max="2" width="54.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -4171,7 +4243,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4182,7 +4254,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4193,7 +4265,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4204,7 +4276,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4215,7 +4287,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4226,7 +4298,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4237,7 +4309,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4248,7 +4320,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4259,7 +4331,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4267,7 +4339,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4275,7 +4347,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4283,7 +4355,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4291,7 +4363,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4299,7 +4371,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4307,7 +4379,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4315,7 +4387,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4323,7 +4395,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4338,21 +4410,146 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="20"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="20">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="20">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="20">
+        <v>4</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="20">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="20">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="20">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="20">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="20">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="20">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>516</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="20"/>
-    <col min="2" max="2" width="36.44140625" customWidth="1"/>
-    <col min="3" max="3" width="135.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="20"/>
+    <col min="2" max="2" width="36.42578125" customWidth="1"/>
+    <col min="3" max="3" width="135.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>160</v>
       </c>
@@ -4369,7 +4566,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="20">
         <v>1</v>
       </c>
@@ -4380,7 +4577,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
         <v>2</v>
       </c>
@@ -4391,7 +4588,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
         <v>3</v>
       </c>
@@ -4402,7 +4599,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>4</v>
       </c>
@@ -4416,7 +4613,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>5</v>
       </c>
@@ -4427,7 +4624,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>6</v>
       </c>
@@ -4438,7 +4635,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>7</v>
       </c>
@@ -4449,7 +4646,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>8</v>
       </c>
@@ -4466,7 +4663,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <v>9</v>
       </c>
@@ -4477,7 +4674,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <v>10</v>
       </c>
@@ -4488,7 +4685,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
         <v>11</v>
       </c>
@@ -4499,7 +4696,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
         <v>12</v>
       </c>
@@ -4510,7 +4707,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
         <v>13</v>
       </c>
@@ -4521,7 +4718,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="20">
         <v>14</v>
       </c>
@@ -4535,7 +4732,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
         <v>15</v>
       </c>
@@ -4549,7 +4746,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="20">
         <v>16</v>
       </c>
@@ -4560,7 +4757,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
         <v>17</v>
       </c>
@@ -4589,7 +4786,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -4597,9 +4794,9 @@
       <selection activeCell="B1" sqref="B1:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -4607,22 +4804,22 @@
         <v>396</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>400</v>
       </c>
@@ -4632,7 +4829,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -4641,9 +4838,9 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>386</v>
       </c>
@@ -4654,7 +4851,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="216" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="240" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>389</v>
       </c>
@@ -4668,7 +4865,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
@@ -4677,15 +4874,15 @@
       <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="21"/>
-    <col min="2" max="2" width="37.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="53.88671875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="21"/>
+    <col min="2" max="2" width="37.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="53.85546875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="23" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>78</v>
       </c>
@@ -4696,7 +4893,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="21">
         <v>1</v>
       </c>
@@ -4707,7 +4904,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="21">
         <v>2</v>
       </c>
@@ -4718,7 +4915,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="21">
         <v>3</v>
       </c>
@@ -4729,7 +4926,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="21">
         <v>4</v>
       </c>
@@ -4740,7 +4937,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="21">
         <v>5</v>
       </c>
@@ -4751,7 +4948,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="21">
         <v>6</v>
       </c>
@@ -4762,7 +4959,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="21">
         <v>7</v>
       </c>
@@ -4773,7 +4970,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="59.4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" ht="60.75" x14ac:dyDescent="0.3">
       <c r="A9" s="21">
         <v>8</v>
       </c>
@@ -4787,7 +4984,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" ht="45.75" x14ac:dyDescent="0.3">
       <c r="A10" s="21">
         <v>9</v>
       </c>
@@ -4798,7 +4995,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="21">
         <v>10</v>
       </c>
@@ -4806,12 +5003,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="21">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>279</v>
       </c>
@@ -4820,7 +5017,7 @@
       </c>
       <c r="C13" s="34"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14"/>
     </row>
   </sheetData>
@@ -4833,7 +5030,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
@@ -4842,14 +5039,14 @@
       <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>277</v>
       </c>
@@ -4860,7 +5057,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>132</v>
       </c>
@@ -4871,7 +5068,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>141</v>
       </c>
@@ -4879,12 +5076,12 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>330</v>
       </c>
@@ -4895,7 +5092,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
@@ -4904,14 +5101,14 @@
       <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="20"/>
+    <col min="1" max="1" width="9.140625" style="20"/>
     <col min="2" max="2" width="14" style="20" customWidth="1"/>
     <col min="3" max="3" width="145" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -4930,7 +5127,7 @@
       <c r="H1" s="35"/>
       <c r="I1" s="35"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="20">
         <v>1</v>
       </c>
@@ -4947,7 +5144,7 @@
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
         <v>2</v>
       </c>
@@ -4964,7 +5161,7 @@
       <c r="H3" s="35"/>
       <c r="I3" s="35"/>
     </row>
-    <row r="4" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
         <v>3</v>
       </c>
@@ -4981,7 +5178,7 @@
       <c r="H4" s="35"/>
       <c r="I4" s="35"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>4</v>
       </c>
@@ -4998,27 +5195,27 @@
       <c r="H5" s="35"/>
       <c r="I5" s="35"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <v>9</v>
       </c>
@@ -5032,7 +5229,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -5041,13 +5238,13 @@
       <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="20"/>
+    <col min="1" max="1" width="9.140625" style="20"/>
     <col min="2" max="2" width="64" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -5058,7 +5255,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" s="20">
         <v>1</v>
       </c>
@@ -5069,7 +5266,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
         <v>2</v>
       </c>
@@ -5077,7 +5274,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
         <v>3</v>
       </c>
@@ -5085,32 +5282,32 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <v>8</v>
       </c>
@@ -5120,7 +5317,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -5128,13 +5325,13 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>182</v>
       </c>
@@ -5142,7 +5339,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5150,7 +5347,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5158,7 +5355,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5166,7 +5363,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5177,7 +5374,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5185,22 +5382,22 @@
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>315</v>
       </c>
@@ -5211,7 +5408,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -5219,12 +5416,12 @@
       <selection activeCell="B10" sqref="B9:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="84.44140625" customWidth="1"/>
+    <col min="2" max="2" width="84.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5232,7 +5429,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5240,142 +5437,19 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.109375" style="20"/>
-    <col min="2" max="2" width="57.44140625" customWidth="1"/>
-    <col min="6" max="6" width="113.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="20">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="20">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D3" t="s">
-        <v>194</v>
-      </c>
-      <c r="E3" t="s">
-        <v>220</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="20">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>291</v>
-      </c>
-      <c r="D4" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="20">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="20">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>236</v>
-      </c>
-      <c r="E6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="20">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="20">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="20">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -5391,9 +5465,9 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5401,7 +5475,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5409,7 +5483,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5417,7 +5491,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5425,7 +5499,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5433,7 +5507,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5446,19 +5520,142 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="20"/>
+    <col min="2" max="2" width="57.42578125" customWidth="1"/>
+    <col min="6" max="6" width="113.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="20">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="20">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="20">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="20">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="20">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="20">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="41.5546875" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="41.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>160</v>
       </c>
@@ -5466,7 +5663,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5474,7 +5671,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5482,7 +5679,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5490,7 +5687,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5498,62 +5695,62 @@
         <v>549</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5565,41 +5762,41 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF29"/>
+  <dimension ref="A1:AF30"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="N11" sqref="N11"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="120" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="120" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="30.5546875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="17.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="9.109375" style="1"/>
-    <col min="8" max="8" width="42.44140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="1"/>
-    <col min="10" max="11" width="18.33203125" style="1" customWidth="1"/>
-    <col min="12" max="14" width="56.5546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="48.109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="24.6640625" style="1" customWidth="1"/>
-    <col min="17" max="19" width="9.109375" style="1"/>
-    <col min="20" max="21" width="15.33203125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="24.6640625" style="1" customWidth="1"/>
-    <col min="23" max="24" width="12.109375" style="1" customWidth="1"/>
-    <col min="25" max="26" width="21.5546875" style="1" customWidth="1"/>
-    <col min="27" max="27" width="14.44140625" style="1" customWidth="1"/>
-    <col min="28" max="29" width="14.44140625" style="7" customWidth="1"/>
-    <col min="30" max="30" width="52.33203125" style="1" customWidth="1"/>
-    <col min="31" max="31" width="66.6640625" style="4" customWidth="1"/>
-    <col min="32" max="32" width="99.109375" style="4" customWidth="1"/>
-    <col min="33" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="30.5703125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="17.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="42.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
+    <col min="10" max="11" width="18.28515625" style="1" customWidth="1"/>
+    <col min="12" max="14" width="56.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="48.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="24.7109375" style="1" customWidth="1"/>
+    <col min="17" max="19" width="9.140625" style="1"/>
+    <col min="20" max="21" width="15.28515625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="24.7109375" style="1" customWidth="1"/>
+    <col min="23" max="24" width="12.140625" style="1" customWidth="1"/>
+    <col min="25" max="26" width="21.5703125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" customWidth="1"/>
+    <col min="28" max="29" width="14.42578125" style="7" customWidth="1"/>
+    <col min="30" max="30" width="52.28515625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="66.7109375" style="4" customWidth="1"/>
+    <col min="32" max="32" width="99.140625" style="4" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="2" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" s="2" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5697,7 +5894,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5781,7 +5978,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -5867,7 +6064,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -5944,7 +6141,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -6028,7 +6225,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -6106,7 +6303,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:32" s="10" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" s="10" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -6153,7 +6350,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -6210,7 +6407,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:32" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -6281,7 +6478,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -6354,7 +6551,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -6425,7 +6622,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="12" spans="1:32" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -6460,7 +6657,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:32" s="29" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" s="29" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -6510,7 +6707,7 @@
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
     </row>
-    <row r="14" spans="1:32" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>15</v>
       </c>
@@ -6551,7 +6748,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="15" spans="1:32" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>16</v>
       </c>
@@ -6619,7 +6816,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>17</v>
       </c>
@@ -6663,7 +6860,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="17" spans="1:32" s="29" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:32" s="29" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29">
         <v>18</v>
       </c>
@@ -6696,7 +6893,7 @@
       <c r="AE17" s="32"/>
       <c r="AF17" s="32"/>
     </row>
-    <row r="18" spans="1:32" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:32" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>19</v>
       </c>
@@ -6713,7 +6910,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="19" spans="1:32" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:32" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>20</v>
       </c>
@@ -6724,7 +6921,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="20" spans="1:32" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:32" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>21</v>
       </c>
@@ -6738,7 +6935,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="21" spans="1:32" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:32" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>22</v>
       </c>
@@ -6794,7 +6991,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:32" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:32" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>23</v>
       </c>
@@ -6841,7 +7038,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="23" spans="1:32" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:32" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>24</v>
       </c>
@@ -6900,7 +7097,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="24" spans="1:32" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:32" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>25</v>
       </c>
@@ -6908,7 +7105,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="25" spans="1:32" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:32" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>26</v>
       </c>
@@ -6916,7 +7113,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="26" spans="1:32" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:32" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>27</v>
       </c>
@@ -6975,7 +7172,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="27" spans="1:32" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:32" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>28</v>
       </c>
@@ -7001,7 +7198,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="28" spans="1:32" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:32" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>29</v>
       </c>
@@ -7021,7 +7218,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="29" spans="1:32" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:32" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>30</v>
       </c>
@@ -7042,6 +7239,14 @@
       </c>
       <c r="H29" s="1" t="s">
         <v>477</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>553</v>
       </c>
     </row>
   </sheetData>
@@ -7097,7 +7302,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7111,12 +7316,12 @@
       <selection activeCell="E6" sqref="D6:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>160</v>
       </c>
@@ -7139,7 +7344,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7153,7 +7358,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7164,37 +7369,37 @@
         <v>490</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -7217,9 +7422,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7230,7 +7435,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7241,27 +7446,27 @@
         <v>349</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>65</v>
       </c>
@@ -7276,19 +7481,19 @@
   <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="20"/>
-    <col min="2" max="2" width="29.33203125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="124.44140625" customWidth="1"/>
-    <col min="4" max="4" width="51.88671875" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="20"/>
+    <col min="2" max="2" width="29.28515625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="124.42578125" customWidth="1"/>
+    <col min="4" max="4" width="51.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>160</v>
       </c>
@@ -7299,7 +7504,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="20">
         <v>1</v>
       </c>
@@ -7310,7 +7515,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
         <v>2</v>
       </c>
@@ -7321,7 +7526,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
         <v>3</v>
       </c>
@@ -7332,7 +7537,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>4</v>
       </c>
@@ -7343,7 +7548,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>5</v>
       </c>
@@ -7354,7 +7559,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>6</v>
       </c>
@@ -7365,7 +7570,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>7</v>
       </c>
@@ -7376,7 +7581,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>8</v>
       </c>
@@ -7390,7 +7595,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <v>9</v>
       </c>
@@ -7402,7 +7607,7 @@
       </c>
       <c r="D10" s="35"/>
     </row>
-    <row r="11" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <v>10</v>
       </c>
@@ -7413,7 +7618,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
         <v>11</v>
       </c>
@@ -7424,7 +7629,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
         <v>12</v>
       </c>
@@ -7435,7 +7640,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
         <v>13</v>
       </c>
@@ -7446,7 +7651,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="20">
         <v>14</v>
       </c>
@@ -7457,7 +7662,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
         <v>15</v>
       </c>
@@ -7465,7 +7670,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="20">
         <v>16</v>
       </c>
@@ -7473,7 +7678,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
         <v>17</v>
       </c>
@@ -7484,7 +7689,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="20">
         <v>18</v>
       </c>
@@ -7495,7 +7700,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="20">
         <v>19</v>
       </c>
@@ -7506,7 +7711,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="20">
         <v>20</v>
       </c>
@@ -7514,7 +7719,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="20">
         <v>21</v>
       </c>
@@ -7522,7 +7727,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="20">
         <v>22</v>
       </c>
@@ -7533,7 +7738,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
         <v>23</v>
       </c>
@@ -7544,7 +7749,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="20">
         <v>24</v>
       </c>
@@ -7555,7 +7760,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="20">
         <v>25</v>
       </c>
@@ -7566,7 +7771,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A27" s="20">
         <v>26</v>
       </c>
@@ -7577,7 +7782,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" s="20">
         <v>27</v>
       </c>
@@ -7588,7 +7793,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="20">
         <v>28</v>
       </c>
@@ -7599,7 +7804,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="20">
         <v>29</v>
       </c>
@@ -7610,7 +7815,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="20">
         <v>30</v>
       </c>
@@ -7621,7 +7826,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="20">
         <v>31</v>
       </c>
@@ -7632,7 +7837,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="20">
         <v>32</v>
       </c>
@@ -7643,7 +7848,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="165" x14ac:dyDescent="0.25">
       <c r="A34" s="20">
         <v>33</v>
       </c>
@@ -7654,7 +7859,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A35" s="20">
         <v>34</v>
       </c>
@@ -7665,7 +7870,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="216" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="255" x14ac:dyDescent="0.25">
       <c r="A36" s="20">
         <v>35</v>
       </c>
@@ -7676,7 +7881,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="20">
         <v>36</v>
       </c>
@@ -7687,7 +7892,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="20">
         <v>37</v>
       </c>
@@ -7695,7 +7900,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="255" x14ac:dyDescent="0.25">
       <c r="A39" s="20">
         <v>38</v>
       </c>
@@ -7706,112 +7911,115 @@
         <v>546</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="20">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="20">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="20">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="20">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="20">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="20">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="20">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="20">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="20">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="20">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="20">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="20">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="20">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="20">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="20">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="20">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="20">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="20">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="20">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="20">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="20">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="20">
         <v>60</v>
       </c>
@@ -7828,164 +8036,128 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
     </row>
-    <row r="6" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
     </row>
-    <row r="8" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
     </row>
-    <row r="9" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
     </row>
-    <row r="10" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.109375" style="20"/>
-    <col min="2" max="2" width="28.6640625" customWidth="1"/>
-    <col min="3" max="3" width="40.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>282</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="20">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="20">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="20">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="20">
-        <v>4</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="20">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="20">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="20">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="20">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="20">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="20">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>516</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
